--- a/ステージ仕様書.xlsx
+++ b/ステージ仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\HW\HEW\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0730BEB-F219-451B-88A4-CB36848CDF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60511352-2386-40C1-B7A7-D0C448A8A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9BC163CC-3C26-462F-A375-97F7179923BF}"/>
   </bookViews>
@@ -3753,22 +3753,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>268</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>235909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>303107</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC969FE-3D7D-42CB-8C00-0FA744D8B89E}"/>
+        <xdr:cNvPr id="54" name="圖片 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E17641C-D197-4C85-9A34-2E25C38DC07D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3777,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3791,8 +3791,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="762000" y="485775"/>
-          <a:ext cx="7153275" cy="6296025"/>
+          <a:off x="762268" y="482438"/>
+          <a:ext cx="7160839" cy="6259313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8778,8 +8778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4304E-AF9C-4DCF-AC8E-9C11462CFE6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
